--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.629036386406316</v>
+        <v>0.7281529999999999</v>
       </c>
       <c r="H2">
-        <v>0.629036386406316</v>
+        <v>2.184459</v>
       </c>
       <c r="I2">
-        <v>0.04665920080953703</v>
+        <v>0.04815321991878078</v>
       </c>
       <c r="J2">
-        <v>0.04665920080953703</v>
+        <v>0.05312825886392748</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.04117266182551</v>
+        <v>7.927570333333333</v>
       </c>
       <c r="N2">
-        <v>7.04117266182551</v>
+        <v>23.782711</v>
       </c>
       <c r="O2">
-        <v>0.1557244907971639</v>
+        <v>0.1653609910176873</v>
       </c>
       <c r="P2">
-        <v>0.1557244907971639</v>
+        <v>0.1845630641991209</v>
       </c>
       <c r="Q2">
-        <v>4.42915380725766</v>
+        <v>5.772484120927666</v>
       </c>
       <c r="R2">
-        <v>4.42915380725766</v>
+        <v>51.952357088349</v>
       </c>
       <c r="S2">
-        <v>0.007265980287067772</v>
+        <v>0.007962664166462231</v>
       </c>
       <c r="T2">
-        <v>0.007265980287067772</v>
+        <v>0.009805514251490562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.629036386406316</v>
+        <v>0.7281529999999999</v>
       </c>
       <c r="H3">
-        <v>0.629036386406316</v>
+        <v>2.184459</v>
       </c>
       <c r="I3">
-        <v>0.04665920080953703</v>
+        <v>0.04815321991878078</v>
       </c>
       <c r="J3">
-        <v>0.04665920080953703</v>
+        <v>0.05312825886392748</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.7653019328782</v>
+        <v>24.330847</v>
       </c>
       <c r="N3">
-        <v>22.7653019328782</v>
+        <v>72.99254099999999</v>
       </c>
       <c r="O3">
-        <v>0.5034836129727907</v>
+        <v>0.5075165281476604</v>
       </c>
       <c r="P3">
-        <v>0.5034836129727907</v>
+        <v>0.5664504366487053</v>
       </c>
       <c r="Q3">
-        <v>14.32020326330642</v>
+        <v>17.716579235591</v>
       </c>
       <c r="R3">
-        <v>14.32020326330642</v>
+        <v>159.449213120319</v>
       </c>
       <c r="S3">
-        <v>0.02349214300200866</v>
+        <v>0.02443855499231038</v>
       </c>
       <c r="T3">
-        <v>0.02349214300200866</v>
+        <v>0.03009452543185717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.629036386406316</v>
+        <v>0.7281529999999999</v>
       </c>
       <c r="H4">
-        <v>0.629036386406316</v>
+        <v>2.184459</v>
       </c>
       <c r="I4">
-        <v>0.04665920080953703</v>
+        <v>0.04815321991878078</v>
       </c>
       <c r="J4">
-        <v>0.04665920080953703</v>
+        <v>0.05312825886392748</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.238984935585133</v>
+        <v>0.3113256666666667</v>
       </c>
       <c r="N4">
-        <v>0.238984935585133</v>
+        <v>0.9339770000000001</v>
       </c>
       <c r="O4">
-        <v>0.00528545587355888</v>
+        <v>0.006493934283090206</v>
       </c>
       <c r="P4">
-        <v>0.00528545587355888</v>
+        <v>0.007248023869587551</v>
       </c>
       <c r="Q4">
-        <v>0.1503302202860183</v>
+        <v>0.2266927181603333</v>
       </c>
       <c r="R4">
-        <v>0.1503302202860183</v>
+        <v>2.040234463443</v>
       </c>
       <c r="S4">
-        <v>0.0002466151469743308</v>
+        <v>0.0003127038456717527</v>
       </c>
       <c r="T4">
-        <v>0.0002466151469743308</v>
+        <v>0.0003850748883953727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.629036386406316</v>
+        <v>0.7281529999999999</v>
       </c>
       <c r="H5">
-        <v>0.629036386406316</v>
+        <v>2.184459</v>
       </c>
       <c r="I5">
-        <v>0.04665920080953703</v>
+        <v>0.04815321991878078</v>
       </c>
       <c r="J5">
-        <v>0.04665920080953703</v>
+        <v>0.05312825886392748</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.393291149053963</v>
+        <v>0.4078053333333334</v>
       </c>
       <c r="N5">
-        <v>0.393291149053963</v>
+        <v>1.223416</v>
       </c>
       <c r="O5">
-        <v>0.008698134084043517</v>
+        <v>0.008506401233521905</v>
       </c>
       <c r="P5">
-        <v>0.008698134084043517</v>
+        <v>0.009494182801541497</v>
       </c>
       <c r="Q5">
-        <v>0.2473944432064927</v>
+        <v>0.2969446768826667</v>
       </c>
       <c r="R5">
-        <v>0.2473944432064927</v>
+        <v>2.672502091944</v>
       </c>
       <c r="S5">
-        <v>0.0004058479848956649</v>
+        <v>0.0004096106093151684</v>
       </c>
       <c r="T5">
-        <v>0.0004058479848956649</v>
+        <v>0.0005044094015817448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.629036386406316</v>
+        <v>0.7281529999999999</v>
       </c>
       <c r="H6">
-        <v>0.629036386406316</v>
+        <v>2.184459</v>
       </c>
       <c r="I6">
-        <v>0.04665920080953703</v>
+        <v>0.04815321991878078</v>
       </c>
       <c r="J6">
-        <v>0.04665920080953703</v>
+        <v>0.05312825886392748</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.7768260471007</v>
+        <v>14.963446</v>
       </c>
       <c r="N6">
-        <v>14.7768260471007</v>
+        <v>29.926892</v>
       </c>
       <c r="O6">
-        <v>0.3268083062724432</v>
+        <v>0.3121221453180401</v>
       </c>
       <c r="P6">
-        <v>0.3268083062724432</v>
+        <v>0.2322442924810447</v>
       </c>
       <c r="Q6">
-        <v>9.295161259222951</v>
+        <v>10.895678095238</v>
       </c>
       <c r="R6">
-        <v>9.295161259222951</v>
+        <v>65.374068571428</v>
       </c>
       <c r="S6">
-        <v>0.01524861438859061</v>
+        <v>0.01502968630502123</v>
       </c>
       <c r="T6">
-        <v>0.01524861438859061</v>
+        <v>0.01233873489060263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.24579701993306</v>
+        <v>2.719712</v>
       </c>
       <c r="H7">
-        <v>2.24579701993306</v>
+        <v>8.159136</v>
       </c>
       <c r="I7">
-        <v>0.1665835178934004</v>
+        <v>0.1798562802759133</v>
       </c>
       <c r="J7">
-        <v>0.1665835178934004</v>
+        <v>0.1984384644042254</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.04117266182551</v>
+        <v>7.927570333333333</v>
       </c>
       <c r="N7">
-        <v>7.04117266182551</v>
+        <v>23.782711</v>
       </c>
       <c r="O7">
-        <v>0.1557244907971639</v>
+        <v>0.1653609910176873</v>
       </c>
       <c r="P7">
-        <v>0.1557244907971639</v>
+        <v>0.1845630641991209</v>
       </c>
       <c r="Q7">
-        <v>15.81304458076186</v>
+        <v>21.56070816641066</v>
       </c>
       <c r="R7">
-        <v>15.81304458076186</v>
+        <v>194.046373497696</v>
       </c>
       <c r="S7">
-        <v>0.02594113349915003</v>
+        <v>0.02974121274717996</v>
       </c>
       <c r="T7">
-        <v>0.02594113349915003</v>
+        <v>0.03662441104541202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.24579701993306</v>
+        <v>2.719712</v>
       </c>
       <c r="H8">
-        <v>2.24579701993306</v>
+        <v>8.159136</v>
       </c>
       <c r="I8">
-        <v>0.1665835178934004</v>
+        <v>0.1798562802759133</v>
       </c>
       <c r="J8">
-        <v>0.1665835178934004</v>
+        <v>0.1984384644042254</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.7653019328782</v>
+        <v>24.330847</v>
       </c>
       <c r="N8">
-        <v>22.7653019328782</v>
+        <v>72.99254099999999</v>
       </c>
       <c r="O8">
-        <v>0.5034836129727907</v>
+        <v>0.5075165281476604</v>
       </c>
       <c r="P8">
-        <v>0.5034836129727907</v>
+        <v>0.5664504366487053</v>
       </c>
       <c r="Q8">
-        <v>51.12624723873419</v>
+        <v>66.17289655606399</v>
       </c>
       <c r="R8">
-        <v>51.12624723873419</v>
+        <v>595.5560690045759</v>
       </c>
       <c r="S8">
-        <v>0.08387207145068676</v>
+        <v>0.09128003493118404</v>
       </c>
       <c r="T8">
-        <v>0.08387207145068676</v>
+        <v>0.112405554809672</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.24579701993306</v>
+        <v>2.719712</v>
       </c>
       <c r="H9">
-        <v>2.24579701993306</v>
+        <v>8.159136</v>
       </c>
       <c r="I9">
-        <v>0.1665835178934004</v>
+        <v>0.1798562802759133</v>
       </c>
       <c r="J9">
-        <v>0.1665835178934004</v>
+        <v>0.1984384644042254</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.238984935585133</v>
+        <v>0.3113256666666667</v>
       </c>
       <c r="N9">
-        <v>0.238984935585133</v>
+        <v>0.9339770000000001</v>
       </c>
       <c r="O9">
-        <v>0.00528545587355888</v>
+        <v>0.006493934283090206</v>
       </c>
       <c r="P9">
-        <v>0.00528545587355888</v>
+        <v>0.007248023869587551</v>
       </c>
       <c r="Q9">
-        <v>0.536711656145986</v>
+        <v>0.8467161515413333</v>
       </c>
       <c r="R9">
-        <v>0.536711656145986</v>
+        <v>7.620445363872</v>
       </c>
       <c r="S9">
-        <v>0.000880469833087774</v>
+        <v>0.001167974864512834</v>
       </c>
       <c r="T9">
-        <v>0.000880469833087774</v>
+        <v>0.001438286726646125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.24579701993306</v>
+        <v>2.719712</v>
       </c>
       <c r="H10">
-        <v>2.24579701993306</v>
+        <v>8.159136</v>
       </c>
       <c r="I10">
-        <v>0.1665835178934004</v>
+        <v>0.1798562802759133</v>
       </c>
       <c r="J10">
-        <v>0.1665835178934004</v>
+        <v>0.1984384644042254</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.393291149053963</v>
+        <v>0.4078053333333334</v>
       </c>
       <c r="N10">
-        <v>0.393291149053963</v>
+        <v>1.223416</v>
       </c>
       <c r="O10">
-        <v>0.008698134084043517</v>
+        <v>0.008506401233521905</v>
       </c>
       <c r="P10">
-        <v>0.008698134084043517</v>
+        <v>0.009494182801541497</v>
       </c>
       <c r="Q10">
-        <v>0.883252090511439</v>
+        <v>1.109113058730667</v>
       </c>
       <c r="R10">
-        <v>0.883252090511439</v>
+        <v>9.982017528576002</v>
       </c>
       <c r="S10">
-        <v>0.001448965774828459</v>
+        <v>0.00152992968439569</v>
       </c>
       <c r="T10">
-        <v>0.001448965774828459</v>
+        <v>0.001884011055910901</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.24579701993306</v>
+        <v>2.719712</v>
       </c>
       <c r="H11">
-        <v>2.24579701993306</v>
+        <v>8.159136</v>
       </c>
       <c r="I11">
-        <v>0.1665835178934004</v>
+        <v>0.1798562802759133</v>
       </c>
       <c r="J11">
-        <v>0.1665835178934004</v>
+        <v>0.1984384644042254</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.7768260471007</v>
+        <v>14.963446</v>
       </c>
       <c r="N11">
-        <v>14.7768260471007</v>
+        <v>29.926892</v>
       </c>
       <c r="O11">
-        <v>0.3268083062724432</v>
+        <v>0.3121221453180401</v>
       </c>
       <c r="P11">
-        <v>0.3268083062724432</v>
+        <v>0.2322442924810447</v>
       </c>
       <c r="Q11">
-        <v>33.18575190064797</v>
+        <v>40.696263647552</v>
       </c>
       <c r="R11">
-        <v>33.18575190064797</v>
+        <v>244.177581885312</v>
       </c>
       <c r="S11">
-        <v>0.05444087733564743</v>
+        <v>0.05613712804864075</v>
       </c>
       <c r="T11">
-        <v>0.05444087733564743</v>
+        <v>0.0460862007665843</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.27924492750663</v>
+        <v>4.08648</v>
       </c>
       <c r="H12">
-        <v>3.27924492750663</v>
+        <v>12.25944</v>
       </c>
       <c r="I12">
-        <v>0.2432402177087339</v>
+        <v>0.270241515359683</v>
       </c>
       <c r="J12">
-        <v>0.2432402177087339</v>
+        <v>0.2981620171615887</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.04117266182551</v>
+        <v>7.927570333333333</v>
       </c>
       <c r="N12">
-        <v>7.04117266182551</v>
+        <v>23.782711</v>
       </c>
       <c r="O12">
-        <v>0.1557244907971639</v>
+        <v>0.1653609910176873</v>
       </c>
       <c r="P12">
-        <v>0.1557244907971639</v>
+        <v>0.1845630641991209</v>
       </c>
       <c r="Q12">
-        <v>23.08972973498966</v>
+        <v>32.39585761575999</v>
       </c>
       <c r="R12">
-        <v>23.08972973498966</v>
+        <v>291.56271854184</v>
       </c>
       <c r="S12">
-        <v>0.03787845904408388</v>
+        <v>0.04468740479399876</v>
       </c>
       <c r="T12">
-        <v>0.03787845904408388</v>
+        <v>0.0550296955151337</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.27924492750663</v>
+        <v>4.08648</v>
       </c>
       <c r="H13">
-        <v>3.27924492750663</v>
+        <v>12.25944</v>
       </c>
       <c r="I13">
-        <v>0.2432402177087339</v>
+        <v>0.270241515359683</v>
       </c>
       <c r="J13">
-        <v>0.2432402177087339</v>
+        <v>0.2981620171615887</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.7653019328782</v>
+        <v>24.330847</v>
       </c>
       <c r="N13">
-        <v>22.7653019328782</v>
+        <v>72.99254099999999</v>
       </c>
       <c r="O13">
-        <v>0.5034836129727907</v>
+        <v>0.5075165281476604</v>
       </c>
       <c r="P13">
-        <v>0.5034836129727907</v>
+        <v>0.5664504366487053</v>
       </c>
       <c r="Q13">
-        <v>74.65300088654772</v>
+        <v>99.42751964855998</v>
       </c>
       <c r="R13">
-        <v>74.65300088654772</v>
+        <v>894.8476768370398</v>
       </c>
       <c r="S13">
-        <v>0.1224674636322815</v>
+        <v>0.137152035636709</v>
       </c>
       <c r="T13">
-        <v>0.1224674636322815</v>
+        <v>0.1688940048132407</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.27924492750663</v>
+        <v>4.08648</v>
       </c>
       <c r="H14">
-        <v>3.27924492750663</v>
+        <v>12.25944</v>
       </c>
       <c r="I14">
-        <v>0.2432402177087339</v>
+        <v>0.270241515359683</v>
       </c>
       <c r="J14">
-        <v>0.2432402177087339</v>
+        <v>0.2981620171615887</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.238984935585133</v>
+        <v>0.3113256666666667</v>
       </c>
       <c r="N14">
-        <v>0.238984935585133</v>
+        <v>0.9339770000000001</v>
       </c>
       <c r="O14">
-        <v>0.00528545587355888</v>
+        <v>0.006493934283090206</v>
       </c>
       <c r="P14">
-        <v>0.00528545587355888</v>
+        <v>0.007248023869587551</v>
       </c>
       <c r="Q14">
-        <v>0.7836901377680461</v>
+        <v>1.27222611032</v>
       </c>
       <c r="R14">
-        <v>0.7836901377680461</v>
+        <v>11.45003499288</v>
       </c>
       <c r="S14">
-        <v>0.001285635437374368</v>
+        <v>0.001754930641308494</v>
       </c>
       <c r="T14">
-        <v>0.001285635437374368</v>
+        <v>0.002161085417391568</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.27924492750663</v>
+        <v>4.08648</v>
       </c>
       <c r="H15">
-        <v>3.27924492750663</v>
+        <v>12.25944</v>
       </c>
       <c r="I15">
-        <v>0.2432402177087339</v>
+        <v>0.270241515359683</v>
       </c>
       <c r="J15">
-        <v>0.2432402177087339</v>
+        <v>0.2981620171615887</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.393291149053963</v>
+        <v>0.4078053333333334</v>
       </c>
       <c r="N15">
-        <v>0.393291149053963</v>
+        <v>1.223416</v>
       </c>
       <c r="O15">
-        <v>0.008698134084043517</v>
+        <v>0.008506401233521905</v>
       </c>
       <c r="P15">
-        <v>0.008698134084043517</v>
+        <v>0.009494182801541497</v>
       </c>
       <c r="Q15">
-        <v>1.289698005568462</v>
+        <v>1.66648833856</v>
       </c>
       <c r="R15">
-        <v>1.289698005568462</v>
+        <v>14.99839504704</v>
       </c>
       <c r="S15">
-        <v>0.002115736028262503</v>
+        <v>0.002298782759604437</v>
       </c>
       <c r="T15">
-        <v>0.002115736028262503</v>
+        <v>0.002830804695408477</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.27924492750663</v>
+        <v>4.08648</v>
       </c>
       <c r="H16">
-        <v>3.27924492750663</v>
+        <v>12.25944</v>
       </c>
       <c r="I16">
-        <v>0.2432402177087339</v>
+        <v>0.270241515359683</v>
       </c>
       <c r="J16">
-        <v>0.2432402177087339</v>
+        <v>0.2981620171615887</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.7768260471007</v>
+        <v>14.963446</v>
       </c>
       <c r="N16">
-        <v>14.7768260471007</v>
+        <v>29.926892</v>
       </c>
       <c r="O16">
-        <v>0.3268083062724432</v>
+        <v>0.3121221453180401</v>
       </c>
       <c r="P16">
-        <v>0.3268083062724432</v>
+        <v>0.2322442924810447</v>
       </c>
       <c r="Q16">
-        <v>48.45683185960281</v>
+        <v>61.14782281008</v>
       </c>
       <c r="R16">
-        <v>48.45683185960281</v>
+        <v>366.88693686048</v>
       </c>
       <c r="S16">
-        <v>0.07949292356673165</v>
+        <v>0.08434836152806234</v>
       </c>
       <c r="T16">
-        <v>0.07949292356673165</v>
+        <v>0.0692464267204143</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.28826986989521</v>
+        <v>3.339191333333333</v>
       </c>
       <c r="H17">
-        <v>3.28826986989521</v>
+        <v>10.017574</v>
       </c>
       <c r="I17">
-        <v>0.2439096489344997</v>
+        <v>0.2208228416622424</v>
       </c>
       <c r="J17">
-        <v>0.2439096489344997</v>
+        <v>0.2436375618221946</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.04117266182551</v>
+        <v>7.927570333333333</v>
       </c>
       <c r="N17">
-        <v>7.04117266182551</v>
+        <v>23.782711</v>
       </c>
       <c r="O17">
-        <v>0.1557244907971639</v>
+        <v>0.1653609910176873</v>
       </c>
       <c r="P17">
-        <v>0.1557244907971639</v>
+        <v>0.1845630641991209</v>
       </c>
       <c r="Q17">
-        <v>23.15327591261068</v>
+        <v>26.47167415145711</v>
       </c>
       <c r="R17">
-        <v>23.15327591261068</v>
+        <v>238.245067363114</v>
       </c>
       <c r="S17">
-        <v>0.03798270588083998</v>
+        <v>0.03651548393661026</v>
       </c>
       <c r="T17">
-        <v>0.03798270588083998</v>
+        <v>0.044966494963907</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.28826986989521</v>
+        <v>3.339191333333333</v>
       </c>
       <c r="H18">
-        <v>3.28826986989521</v>
+        <v>10.017574</v>
       </c>
       <c r="I18">
-        <v>0.2439096489344997</v>
+        <v>0.2208228416622424</v>
       </c>
       <c r="J18">
-        <v>0.2439096489344997</v>
+        <v>0.2436375618221946</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.7653019328782</v>
+        <v>24.330847</v>
       </c>
       <c r="N18">
-        <v>22.7653019328782</v>
+        <v>72.99254099999999</v>
       </c>
       <c r="O18">
-        <v>0.5034836129727907</v>
+        <v>0.5075165281476604</v>
       </c>
       <c r="P18">
-        <v>0.5034836129727907</v>
+        <v>0.5664504366487053</v>
       </c>
       <c r="Q18">
-        <v>74.85845642495057</v>
+        <v>81.24535343505931</v>
       </c>
       <c r="R18">
-        <v>74.85845642495057</v>
+        <v>731.2081809155338</v>
       </c>
       <c r="S18">
-        <v>0.1228045112844669</v>
+        <v>0.1120712419361218</v>
       </c>
       <c r="T18">
-        <v>0.1228045112844669</v>
+        <v>0.1380086032782081</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.28826986989521</v>
+        <v>3.339191333333333</v>
       </c>
       <c r="H19">
-        <v>3.28826986989521</v>
+        <v>10.017574</v>
       </c>
       <c r="I19">
-        <v>0.2439096489344997</v>
+        <v>0.2208228416622424</v>
       </c>
       <c r="J19">
-        <v>0.2439096489344997</v>
+        <v>0.2436375618221946</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.238984935585133</v>
+        <v>0.3113256666666667</v>
       </c>
       <c r="N19">
-        <v>0.238984935585133</v>
+        <v>0.9339770000000001</v>
       </c>
       <c r="O19">
-        <v>0.00528545587355888</v>
+        <v>0.006493934283090206</v>
       </c>
       <c r="P19">
-        <v>0.00528545587355888</v>
+        <v>0.007248023869587551</v>
       </c>
       <c r="Q19">
-        <v>0.7858469630434405</v>
+        <v>1.039575967977556</v>
       </c>
       <c r="R19">
-        <v>0.7858469630434405</v>
+        <v>9.356183711798</v>
       </c>
       <c r="S19">
-        <v>0.001289173686578536</v>
+        <v>0.001434009021959836</v>
       </c>
       <c r="T19">
-        <v>0.001289173686578536</v>
+        <v>0.001765890863615379</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.28826986989521</v>
+        <v>3.339191333333333</v>
       </c>
       <c r="H20">
-        <v>3.28826986989521</v>
+        <v>10.017574</v>
       </c>
       <c r="I20">
-        <v>0.2439096489344997</v>
+        <v>0.2208228416622424</v>
       </c>
       <c r="J20">
-        <v>0.2439096489344997</v>
+        <v>0.2436375618221946</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.393291149053963</v>
+        <v>0.4078053333333334</v>
       </c>
       <c r="N20">
-        <v>0.393291149053963</v>
+        <v>1.223416</v>
       </c>
       <c r="O20">
-        <v>0.008698134084043517</v>
+        <v>0.008506401233521905</v>
       </c>
       <c r="P20">
-        <v>0.008698134084043517</v>
+        <v>0.009494182801541497</v>
       </c>
       <c r="Q20">
-        <v>1.293247435530613</v>
+        <v>1.361740034753778</v>
       </c>
       <c r="R20">
-        <v>1.293247435530613</v>
+        <v>12.255660312784</v>
       </c>
       <c r="S20">
-        <v>0.00212155883082426</v>
+        <v>0.001878407692705512</v>
       </c>
       <c r="T20">
-        <v>0.00212155883082426</v>
+        <v>0.002313139549261783</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.28826986989521</v>
+        <v>3.339191333333333</v>
       </c>
       <c r="H21">
-        <v>3.28826986989521</v>
+        <v>10.017574</v>
       </c>
       <c r="I21">
-        <v>0.2439096489344997</v>
+        <v>0.2208228416622424</v>
       </c>
       <c r="J21">
-        <v>0.2439096489344997</v>
+        <v>0.2436375618221946</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.7768260471007</v>
+        <v>14.963446</v>
       </c>
       <c r="N21">
-        <v>14.7768260471007</v>
+        <v>29.926892</v>
       </c>
       <c r="O21">
-        <v>0.3268083062724432</v>
+        <v>0.3121221453180401</v>
       </c>
       <c r="P21">
-        <v>0.3268083062724432</v>
+        <v>0.2322442924810447</v>
       </c>
       <c r="Q21">
-        <v>48.59019186336397</v>
+        <v>49.96580920000134</v>
       </c>
       <c r="R21">
-        <v>48.59019186336397</v>
+        <v>299.794855200008</v>
       </c>
       <c r="S21">
-        <v>0.07971169925179006</v>
+        <v>0.06892369907484498</v>
       </c>
       <c r="T21">
-        <v>0.07971169925179006</v>
+        <v>0.05658343316720238</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.03915974094142</v>
+        <v>4.248048499999999</v>
       </c>
       <c r="H22">
-        <v>4.03915974094142</v>
+        <v>8.496096999999999</v>
       </c>
       <c r="I22">
-        <v>0.299607414653829</v>
+        <v>0.2809261427833804</v>
       </c>
       <c r="J22">
-        <v>0.299607414653829</v>
+        <v>0.2066336977480637</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.04117266182551</v>
+        <v>7.927570333333333</v>
       </c>
       <c r="N22">
-        <v>7.04117266182551</v>
+        <v>23.782711</v>
       </c>
       <c r="O22">
-        <v>0.1557244907971639</v>
+        <v>0.1653609910176873</v>
       </c>
       <c r="P22">
-        <v>0.1557244907971639</v>
+        <v>0.1845630641991209</v>
       </c>
       <c r="Q22">
-        <v>28.44042114466294</v>
+        <v>33.67670326316116</v>
       </c>
       <c r="R22">
-        <v>28.44042114466294</v>
+        <v>202.060219578967</v>
       </c>
       <c r="S22">
-        <v>0.04665621208602226</v>
+        <v>0.04645422537343612</v>
       </c>
       <c r="T22">
-        <v>0.04665621208602226</v>
+        <v>0.03813694842317764</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.03915974094142</v>
+        <v>4.248048499999999</v>
       </c>
       <c r="H23">
-        <v>4.03915974094142</v>
+        <v>8.496096999999999</v>
       </c>
       <c r="I23">
-        <v>0.299607414653829</v>
+        <v>0.2809261427833804</v>
       </c>
       <c r="J23">
-        <v>0.299607414653829</v>
+        <v>0.2066336977480637</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.7653019328782</v>
+        <v>24.330847</v>
       </c>
       <c r="N23">
-        <v>22.7653019328782</v>
+        <v>72.99254099999999</v>
       </c>
       <c r="O23">
-        <v>0.5034836129727907</v>
+        <v>0.5075165281476604</v>
       </c>
       <c r="P23">
-        <v>0.5034836129727907</v>
+        <v>0.5664504366487053</v>
       </c>
       <c r="Q23">
-        <v>91.95269105765752</v>
+        <v>103.3586181020795</v>
       </c>
       <c r="R23">
-        <v>91.95269105765752</v>
+        <v>620.1517086124768</v>
       </c>
       <c r="S23">
-        <v>0.1508474236033468</v>
+        <v>0.1425746606513351</v>
       </c>
       <c r="T23">
-        <v>0.1508474236033468</v>
+        <v>0.1170477483157273</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.03915974094142</v>
+        <v>4.248048499999999</v>
       </c>
       <c r="H24">
-        <v>4.03915974094142</v>
+        <v>8.496096999999999</v>
       </c>
       <c r="I24">
-        <v>0.299607414653829</v>
+        <v>0.2809261427833804</v>
       </c>
       <c r="J24">
-        <v>0.299607414653829</v>
+        <v>0.2066336977480637</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.238984935585133</v>
+        <v>0.3113256666666667</v>
       </c>
       <c r="N24">
-        <v>0.238984935585133</v>
+        <v>0.9339770000000001</v>
       </c>
       <c r="O24">
-        <v>0.00528545587355888</v>
+        <v>0.006493934283090206</v>
       </c>
       <c r="P24">
-        <v>0.00528545587355888</v>
+        <v>0.007248023869587551</v>
       </c>
       <c r="Q24">
-        <v>0.9652983305069478</v>
+        <v>1.322526531294833</v>
       </c>
       <c r="R24">
-        <v>0.9652983305069478</v>
+        <v>7.935159187768999</v>
       </c>
       <c r="S24">
-        <v>0.001583561769543871</v>
+        <v>0.001824315909637288</v>
       </c>
       <c r="T24">
-        <v>0.001583561769543871</v>
+        <v>0.001497685973539105</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.03915974094142</v>
+        <v>4.248048499999999</v>
       </c>
       <c r="H25">
-        <v>4.03915974094142</v>
+        <v>8.496096999999999</v>
       </c>
       <c r="I25">
-        <v>0.299607414653829</v>
+        <v>0.2809261427833804</v>
       </c>
       <c r="J25">
-        <v>0.299607414653829</v>
+        <v>0.2066336977480637</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.393291149053963</v>
+        <v>0.4078053333333334</v>
       </c>
       <c r="N25">
-        <v>0.393291149053963</v>
+        <v>1.223416</v>
       </c>
       <c r="O25">
-        <v>0.008698134084043517</v>
+        <v>0.008506401233521905</v>
       </c>
       <c r="P25">
-        <v>0.008698134084043517</v>
+        <v>0.009494182801541497</v>
       </c>
       <c r="Q25">
-        <v>1.588565775727359</v>
+        <v>1.732376834558667</v>
       </c>
       <c r="R25">
-        <v>1.588565775727359</v>
+        <v>10.394261007352</v>
       </c>
       <c r="S25">
-        <v>0.002606025465232629</v>
+        <v>0.002389670487501098</v>
       </c>
       <c r="T25">
-        <v>0.002606025465232629</v>
+        <v>0.001961818099378591</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.03915974094142</v>
+        <v>4.248048499999999</v>
       </c>
       <c r="H26">
-        <v>4.03915974094142</v>
+        <v>8.496096999999999</v>
       </c>
       <c r="I26">
-        <v>0.299607414653829</v>
+        <v>0.2809261427833804</v>
       </c>
       <c r="J26">
-        <v>0.299607414653829</v>
+        <v>0.2066336977480637</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.7768260471007</v>
+        <v>14.963446</v>
       </c>
       <c r="N26">
-        <v>14.7768260471007</v>
+        <v>29.926892</v>
       </c>
       <c r="O26">
-        <v>0.3268083062724432</v>
+        <v>0.3121221453180401</v>
       </c>
       <c r="P26">
-        <v>0.3268083062724432</v>
+        <v>0.2322442924810447</v>
       </c>
       <c r="Q26">
-        <v>59.68596086834369</v>
+        <v>63.565444335131</v>
       </c>
       <c r="R26">
-        <v>59.68596086834369</v>
+        <v>254.261777340524</v>
       </c>
       <c r="S26">
-        <v>0.09791419172968341</v>
+        <v>0.08768327036147072</v>
       </c>
       <c r="T26">
-        <v>0.09791419172968341</v>
+        <v>0.04798949693624111</v>
       </c>
     </row>
   </sheetData>
